--- a/data/annotation.xlsx
+++ b/data/annotation.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\InsightAI\src\insightai\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\InsightAI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECA2F2B-03BC-4FA1-9412-0F4D38090853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185C0485-EA4A-400E-B8EC-F0847F69BA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{252C57A4-D20B-4A38-BF0D-98C2118BF05B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{252C57A4-D20B-4A38-BF0D-98C2118BF05B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="class_label_mapping" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>img_1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Class abbreviation</t>
   </si>
@@ -54,18 +44,6 @@
     <t>c0</t>
   </si>
   <si>
-    <t>img_2</t>
-  </si>
-  <si>
-    <t>img_3</t>
-  </si>
-  <si>
-    <t>img_4</t>
-  </si>
-  <si>
-    <t>img_5</t>
-  </si>
-  <si>
     <t>c1</t>
   </si>
   <si>
@@ -142,22 +120,40 @@
   </si>
   <si>
     <t>c12</t>
+  </si>
+  <si>
+    <t>c13</t>
+  </si>
+  <si>
+    <t>Dell XPS 16 9640</t>
+  </si>
+  <si>
+    <t>XPS 17 9730</t>
+  </si>
+  <si>
+    <t>c14</t>
+  </si>
+  <si>
+    <t>c15</t>
+  </si>
+  <si>
+    <t>Dell Alienware m16 R2</t>
+  </si>
+  <si>
+    <t>Alienware x14 R2</t>
+  </si>
+  <si>
+    <t>c16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,9 +179,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,19 +199,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BFCC15AC-E0B6-41DB-A031-158394D5BE2D}" name="Table2" displayName="Table2" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6" xr:uid="{BFCC15AC-E0B6-41DB-A031-158394D5BE2D}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{26D3D162-35BD-48FC-9315-F2BA6DABA6A7}" name="Image"/>
-    <tableColumn id="2" xr3:uid="{86A58AA1-C626-49C5-9954-5639838C2A24}" name="Label"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69F721DB-CFD3-4D53-84B9-55CBB83B0546}" name="Table1" displayName="Table1" ref="A1:B14" totalsRowShown="0">
-  <autoFilter ref="A1:B14" xr:uid="{69F721DB-CFD3-4D53-84B9-55CBB83B0546}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69F721DB-CFD3-4D53-84B9-55CBB83B0546}" name="Table1" displayName="Table1" ref="A1:B18" totalsRowShown="0">
+  <autoFilter ref="A1:B18" xr:uid="{69F721DB-CFD3-4D53-84B9-55CBB83B0546}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{0252C79E-E331-4E3A-8C33-0BEB8B19AC89}" name="Class abbreviation"/>
     <tableColumn id="2" xr3:uid="{19466974-116F-43C2-B03B-23F90001993E}" name="Name"/>
@@ -541,202 +525,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10466CB2-8C01-45B9-AE39-D5E49CEBDC36}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0F896D-F68B-4072-95B5-2DD5973844F0}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0F896D-F68B-4072-95B5-2DD5973844F0}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>